--- a/1 NHI impact/output/sfig_4_pta_cohort.xlsx
+++ b/1 NHI impact/output/sfig_4_pta_cohort.xlsx
@@ -458,7 +458,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2810,7 +2810,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3482,7 +3482,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6650,7 +6650,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6698,7 +6698,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6890,7 +6890,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6938,7 +6938,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6986,7 +6986,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7034,7 +7034,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7130,7 +7130,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7178,7 +7178,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7226,7 +7226,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7274,7 +7274,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7322,7 +7322,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7418,7 +7418,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7514,7 +7514,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7706,7 +7706,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7754,7 +7754,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7850,7 +7850,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7898,7 +7898,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7994,7 +7994,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8090,7 +8090,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8138,7 +8138,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8186,7 +8186,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8234,7 +8234,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8282,7 +8282,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8330,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8474,7 +8474,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8522,7 +8522,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8570,7 +8570,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8618,7 +8618,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8714,7 +8714,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8810,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8858,7 +8858,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8906,7 +8906,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8954,7 +8954,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9002,7 +9002,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9098,7 +9098,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9146,7 +9146,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9194,7 +9194,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9242,7 +9242,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9290,7 +9290,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9338,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9386,7 +9386,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9434,7 +9434,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9530,7 +9530,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9578,7 +9578,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9626,7 +9626,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
